--- a/rhla_analysis/rhla1_6_normal_result/k8.xlsx
+++ b/rhla_analysis/rhla1_6_normal_result/k8.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.002988652344542658</v>
+        <v>0.00298865234454262</v>
       </c>
       <c r="B2" t="n">
         <v>0.3024294016540236</v>
@@ -466,12 +466,12 @@
         <v>0.2012898845892736</v>
       </c>
       <c r="D2" t="n">
-        <v>101.1925666785118</v>
+        <v>101.1925666785131</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.002244948748114382</v>
+        <v>0.002244948748114387</v>
       </c>
       <c r="B3" t="n">
         <v>0.2956731827185848</v>
@@ -480,12 +480,12 @@
         <v>0.1880515953835709</v>
       </c>
       <c r="D3" t="n">
-        <v>131.7059834737573</v>
+        <v>131.7059834737569</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.003687381539859121</v>
+        <v>0.003687381539859127</v>
       </c>
       <c r="B4" t="n">
         <v>0.3242042775921258</v>
@@ -494,12 +494,12 @@
         <v>0.1877121520706042</v>
       </c>
       <c r="D4" t="n">
-        <v>87.9226285882291</v>
+        <v>87.92262858822896</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.006187463577502147</v>
+        <v>0.006187463577502186</v>
       </c>
       <c r="B5" t="n">
         <v>0.3045454971891443</v>
@@ -508,12 +508,12 @@
         <v>0.1771894093686354</v>
       </c>
       <c r="D5" t="n">
-        <v>49.21976402357879</v>
+        <v>49.21976402357848</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.002809789763977985</v>
+        <v>0.002809789763977994</v>
       </c>
       <c r="B6" t="n">
         <v>0.2940140306483536</v>
@@ -522,12 +522,12 @@
         <v>0.1890699253224712</v>
       </c>
       <c r="D6" t="n">
-        <v>104.6391564300173</v>
+        <v>104.6391564300169</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.004520485020074495</v>
+        <v>0.004520485020074494</v>
       </c>
       <c r="B7" t="n">
         <v>0.2966817607732208</v>
@@ -536,12 +536,12 @@
         <v>0.191785471826205</v>
       </c>
       <c r="D7" t="n">
-        <v>65.63051518934834</v>
+        <v>65.63051518934837</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.004075387231458298</v>
+        <v>0.004075387231458284</v>
       </c>
       <c r="B8" t="n">
         <v>0.3226854420797844</v>
@@ -550,12 +550,12 @@
         <v>0.1768499660556687</v>
       </c>
       <c r="D8" t="n">
-        <v>79.17908747147879</v>
+        <v>79.17908747147908</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.001835568426125666</v>
+        <v>0.001835568426125667</v>
       </c>
       <c r="B9" t="n">
         <v>0.3497160598749657</v>
@@ -564,12 +564,12 @@
         <v>0.2006109979633401</v>
       </c>
       <c r="D9" t="n">
-        <v>190.5219412675949</v>
+        <v>190.5219412675948</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.005978035204350038</v>
+        <v>0.005978035204350022</v>
       </c>
       <c r="B10" t="n">
         <v>0.3166866629210122</v>
@@ -578,12 +578,12 @@
         <v>0.1795655125594026</v>
       </c>
       <c r="D10" t="n">
-        <v>52.97504148027912</v>
+        <v>52.97504148027927</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.003199998635688639</v>
+        <v>0.003199998635688634</v>
       </c>
       <c r="B11" t="n">
         <v>0.336309889645375</v>
@@ -592,7 +592,7 @@
         <v>0.1887304820095044</v>
       </c>
       <c r="D11" t="n">
-        <v>105.096885321953</v>
+        <v>105.0968853219532</v>
       </c>
     </row>
   </sheetData>
